--- a/web-form/PJヘルスチェックWebフォーム_テーブル定義書.xlsx
+++ b/web-form/PJヘルスチェックWebフォーム_テーブル定義書.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\junki.ishikawa\Documents\社内DX\開発効率向上\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\azuma.hideaki\dcm-dx-pj-helthcheck-web-form\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9D564B-DE80-488D-9AF5-DFAB011D72F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25560" windowHeight="8955" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25560" windowHeight="8955" firstSheet="5" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="2" r:id="rId1"/>
@@ -23,9 +22,11 @@
     <sheet name="question_conditions" sheetId="21" r:id="rId8"/>
     <sheet name="question_types" sheetId="14" r:id="rId9"/>
     <sheet name="question_groups" sheetId="15" r:id="rId10"/>
-    <sheet name="テーブル定義_テンプレート" sheetId="3" r:id="rId11"/>
+    <sheet name="notifications" sheetId="22" r:id="rId11"/>
+    <sheet name="notification_types" sheetId="24" r:id="rId12"/>
+    <sheet name="テーブル定義_テンプレート" sheetId="3" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="160">
   <si>
     <t>テーブル名</t>
     <rPh sb="4" eb="5">
@@ -1040,11 +1041,189 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東英明</t>
+    <rPh sb="0" eb="1">
+      <t>アズマ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ヒデアキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おしらせを管理するテーブル</t>
+    <rPh sb="5" eb="7">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>publish_timestamp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>expire_timestamp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR(1000)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+  </si>
+  <si>
+    <t>おしらせのID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お知らせのタイトル</t>
+    <rPh sb="1" eb="2">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お知らせの中身</t>
+    <rPh sb="5" eb="7">
+      <t>ナカミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お知らせを作成した日付</t>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お知らせを更新した日付</t>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お知らせを掲載する日時</t>
+    <rPh sb="1" eb="2">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケイサイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お知らせを掲載しなくする日時</t>
+    <rPh sb="1" eb="2">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケイサイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>type_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お知らせ種別のID</t>
+    <rPh sb="1" eb="2">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お知らせ種別を管理するテーブル</t>
+    <rPh sb="1" eb="2">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュベツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>severity</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重要度を指し示すカラム（数字が大きいほど重要)</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>サシシメ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジュウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お知らせ種別の名前</t>
+    <rPh sb="1" eb="2">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュベツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1595,7 +1774,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1785,7 +1964,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2708,11 +2887,1917 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="H25" sqref="H25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="14.875" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="11.625" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="32.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="str">
+        <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
+        <v>notifications</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="F3" s="22"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="24">
+        <v>45195</v>
+      </c>
+      <c r="F4" s="25"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="23" t="str">
+        <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
+        <v>notifications</v>
+      </c>
+      <c r="C5" s="23"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="25"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="14"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="17"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="17"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="17"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="17"/>
+    </row>
+    <row r="11" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="18"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="20"/>
+    </row>
+    <row r="12" spans="1:8" ht="6.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="9" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A16" s="1">
+        <f>IF(B16 &lt;&gt;"", ROW() - 15, "")</f>
+        <v>1</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A17" s="1">
+        <f t="shared" ref="A17:A71" si="0">IF(B17 &lt;&gt;"", ROW() - 15, "")</f>
+        <v>2</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A18" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A19" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A20" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A21" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A22" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A23" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A24" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A34" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A35" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A36" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A37" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A38" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A39" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A40" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A41" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A42" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A43" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A44" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A45" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A46" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A47" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A48" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A49" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A50" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A51" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A52" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A53" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A54" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A55" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A56" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A57" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A58" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A59" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A60" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A61" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A62" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A63" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A64" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A65" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A66" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A67" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A68" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A69" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A70" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A71" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F11"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:F5"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H71"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="14.875" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="14.125" customWidth="1"/>
+    <col min="4" max="4" width="11.625" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="11.625" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="47" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="str">
+        <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
+        <v>notification_types</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="F3" s="22"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="24">
+        <v>45196</v>
+      </c>
+      <c r="F4" s="25"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="23" t="str">
+        <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
+        <v>notification_types</v>
+      </c>
+      <c r="C5" s="23"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="25"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="14"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="17"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="17"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="17"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="17"/>
+    </row>
+    <row r="11" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="18"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="20"/>
+    </row>
+    <row r="12" spans="1:8" ht="6.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="9" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A16" s="1">
+        <f>IF(B16 &lt;&gt;"", ROW() - 15, "")</f>
+        <v>1</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A17" s="1">
+        <f t="shared" ref="A17:A71" si="0">IF(B17 &lt;&gt;"", ROW() - 15, "")</f>
+        <v>2</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A18" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A34" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A35" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A36" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A37" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A38" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A39" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A40" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A41" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A42" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A43" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A44" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A45" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A46" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A47" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A48" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A49" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A50" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A51" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A52" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A53" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A54" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A55" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A56" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A57" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A58" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A59" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A60" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A61" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A62" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A63" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A64" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A65" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A66" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A67" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A68" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A69" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A70" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A71" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F11"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:F5"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H71"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3607,10 +5692,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
@@ -4572,7 +6657,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5515,7 +7600,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6480,7 +8565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7424,7 +9509,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8419,7 +10504,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9380,7 +11465,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10325,7 +12410,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/web-form/PJヘルスチェックWebフォーム_テーブル定義書.xlsx
+++ b/web-form/PJヘルスチェックWebフォーム_テーブル定義書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25560" windowHeight="8955" firstSheet="5" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25560" windowHeight="8955"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="164">
   <si>
     <t>テーブル名</t>
     <rPh sb="4" eb="5">
@@ -1216,6 +1216,31 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>notifications</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>notification_types</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お知らせ</t>
+    <rPh sb="1" eb="2">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お知らせの種別</t>
+    <rPh sb="1" eb="2">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュベツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1777,8 +1802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1903,14 +1928,26 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
@@ -3865,7 +3902,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
